--- a/time.xlsx
+++ b/time.xlsx
@@ -87,7 +87,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Зависимость времени брутфорса хэша от длины исходной строки</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:x val="-0.0020899999999999998"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
@@ -167,6 +197,14 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1794769614"/>
@@ -334,8 +372,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="2657474" y="187324"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="3171823" y="44448"/>
+      <a:ext cx="4638675" cy="3067050"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -969,16 +1007,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>606424</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>511173</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>282574</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273049</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -988,8 +1026,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2657474" y="187324"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="3171823" y="44448"/>
+        <a:ext cx="4638675" cy="3067050"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1570,7 +1608,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/time.xlsx
+++ b/time.xlsx
@@ -15,13 +15,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>length</t>
+    <t>threads</t>
   </si>
   <si>
-    <t xml:space="preserve">average time</t>
+    <t>first_algorithm</t>
   </si>
   <si>
-    <t>ms</t>
+    <t>second_algoritm</t>
   </si>
 </sst>
 </file>
@@ -56,7 +56,8 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -87,37 +88,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Зависимость времени брутфорса хэша от длины исходной строки</a:t>
-            </a:r>
-            <a:endParaRPr/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:x val="-0.0020899999999999998"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
@@ -192,26 +163,59 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Лист1'!$C$2:$C$6</c:f>
+              <c:f>'Лист1'!$C$3:$C$10</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Лист1'!$D$3:$D$10</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1794769614"/>
-        <c:axId val="1794769615"/>
+        <c:axId val="1794769635"/>
+        <c:axId val="1794769636"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1794769614"/>
+        <c:axId val="1794769635"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -254,7 +258,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1794769615"/>
+        <c:crossAx val="1794769636"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -262,7 +266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1794769615"/>
+        <c:axId val="1794769636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -317,7 +321,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1794769614"/>
+        <c:crossAx val="1794769635"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -333,7 +337,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:x val="-0.01255"/>
+          <c:y val="-0.0069899999999999997"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
@@ -372,8 +381,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="3171823" y="44448"/>
-      <a:ext cx="4638675" cy="3067050"/>
+      <a:off x="3124199" y="263524"/>
+      <a:ext cx="4552949" cy="2724149"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -1008,26 +1017,26 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>511173</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>44448</xdr:rowOff>
+      <xdr:colOff>158749</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>273049</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444499</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1794769611" name="" hidden="0"/>
+        <xdr:cNvPr id="1794769632" name="" hidden="0"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3171823" y="44448"/>
-        <a:ext cx="4638675" cy="3067050"/>
+        <a:off x="3124199" y="263524"/>
+        <a:ext cx="4552949" cy="2724149"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1540,22 +1549,16 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="12.42578125"/>
+    <col customWidth="1" min="4" max="4" width="13.7109375"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="s">
+    <row r="1"/>
+    <row r="2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.21145</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1563,46 +1566,90 @@
     </row>
     <row r="3">
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>6.6900000000000004</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
+        <v>8.0563099999999999</v>
+      </c>
+      <c r="D3">
+        <v>9.0920699999999997</v>
       </c>
     </row>
     <row r="4">
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>272.69999999999999</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
+        <v>9.8722499999999993</v>
+      </c>
+      <c r="D4">
+        <v>8.3396500000000007</v>
       </c>
     </row>
     <row r="5">
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>9614</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
+        <v>11.7301</v>
+      </c>
+      <c r="D5">
+        <v>10.520099999999999</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>9.2998100000000008</v>
+      </c>
+      <c r="D6">
+        <v>9.6808200000000006</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>316000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
+      <c r="C7">
+        <v>7.2640900000000004</v>
+      </c>
+      <c r="D7">
+        <v>11.1777</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>8.2310400000000001</v>
+      </c>
+      <c r="D8">
+        <v>13.413</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>10.6389</v>
+      </c>
+      <c r="D9">
+        <v>15.9163</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7.83087</v>
+      </c>
+      <c r="D10">
+        <v>11.952500000000001</v>
       </c>
     </row>
   </sheetData>
